--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil-regular.xlsx
@@ -121,7 +121,7 @@
     <t>44.596 (601)</t>
   </si>
   <si>
-    <t>10.874 (601)</t>
+    <t>10.872 (601)</t>
   </si>
   <si>
     <t>10.394 (601)</t>
@@ -175,7 +175,7 @@
     <t>42.063 (442)</t>
   </si>
   <si>
-    <t>10.898 (442)</t>
+    <t>10.894 (442)</t>
   </si>
   <si>
     <t>10.615 (442)</t>
@@ -229,7 +229,7 @@
     <t>41.531 (49)</t>
   </si>
   <si>
-    <t>10.51 (49)</t>
+    <t>10.469 (49)</t>
   </si>
   <si>
     <t>11.286 (49)</t>
@@ -337,7 +337,7 @@
     <t>42.802 (531)</t>
   </si>
   <si>
-    <t>10.915 (531)</t>
+    <t>10.91 (531)</t>
   </si>
   <si>
     <t>10.55 (531)</t>
@@ -391,7 +391,7 @@
     <t>40.723 (83)</t>
   </si>
   <si>
-    <t>10.482 (83)</t>
+    <t>10.458 (83)</t>
   </si>
   <si>
     <t>10.904 (83)</t>
@@ -493,7 +493,7 @@
     <t>44.657 (361)</t>
   </si>
   <si>
-    <t>11.036 (361)</t>
+    <t>11.042 (361)</t>
   </si>
   <si>
     <t>10.427 (361)</t>
@@ -547,7 +547,7 @@
     <t>43.217 (586)</t>
   </si>
   <si>
-    <t>10.73 (586)</t>
+    <t>10.722 (586)</t>
   </si>
   <si>
     <t>10.534 (586)</t>
@@ -601,7 +601,7 @@
     <t>41.043 (140)</t>
   </si>
   <si>
-    <t>11.079 (140)</t>
+    <t>11.071 (140)</t>
   </si>
   <si>
     <t>10.757 (140)</t>
@@ -649,7 +649,7 @@
     <t>52.8 (5)</t>
   </si>
   <si>
-    <t>8.8 (5)</t>
+    <t>8.6 (5)</t>
   </si>
   <si>
     <t>9.8 (5)</t>
@@ -703,7 +703,7 @@
     <t>44.041 (270)</t>
   </si>
   <si>
-    <t>11.463 (270)</t>
+    <t>11.47 (270)</t>
   </si>
   <si>
     <t>10.541 (270)</t>
@@ -757,7 +757,7 @@
     <t>43.411 (608)</t>
   </si>
   <si>
-    <t>10.589 (608)</t>
+    <t>10.582 (608)</t>
   </si>
   <si>
     <t>10.531 (608)</t>
@@ -811,7 +811,7 @@
     <t>42.734 (203)</t>
   </si>
   <si>
-    <t>10.985 (203)</t>
+    <t>10.975 (203)</t>
   </si>
   <si>
     <t>10.493 (203)</t>
@@ -865,7 +865,7 @@
     <t>42.636 (11)</t>
   </si>
   <si>
-    <t>9.455 (11)</t>
+    <t>9.364 (11)</t>
   </si>
   <si>
     <t>10.273 (11)</t>
@@ -973,7 +973,7 @@
     <t>42.436 (468)</t>
   </si>
   <si>
-    <t>11.132 (468)</t>
+    <t>11.128 (468)</t>
   </si>
   <si>
     <t>10.53 (468)</t>
@@ -1027,7 +1027,7 @@
     <t>44.24 (75)</t>
   </si>
   <si>
-    <t>11.107 (75)</t>
+    <t>11.093 (75)</t>
   </si>
   <si>
     <t>11.467 (75)</t>
@@ -1126,7 +1126,7 @@
     <t>43.059 (273)</t>
   </si>
   <si>
-    <t>11.19 (273)</t>
+    <t>11.187 (273)</t>
   </si>
   <si>
     <t>10.784 (273)</t>
@@ -1180,7 +1180,7 @@
     <t>43.324 (519)</t>
   </si>
   <si>
-    <t>11.01 (519)</t>
+    <t>11.012 (519)</t>
   </si>
   <si>
     <t>10.351 (519)</t>
@@ -1234,7 +1234,7 @@
     <t>41.725 (131)</t>
   </si>
   <si>
-    <t>11.611 (131)</t>
+    <t>11.588 (131)</t>
   </si>
   <si>
     <t>11.191 (131)</t>
@@ -1441,7 +1441,7 @@
     <t>43.94 (501)</t>
   </si>
   <si>
-    <t>11.014 (501)</t>
+    <t>11.012 (501)</t>
   </si>
   <si>
     <t>10.497 (501)</t>
@@ -1495,7 +1495,7 @@
     <t>41.662 (216)</t>
   </si>
   <si>
-    <t>11.301 (216)</t>
+    <t>11.292 (216)</t>
   </si>
   <si>
     <t>10.755 (216)</t>
@@ -1711,7 +1711,7 @@
     <t>43.117 (307)</t>
   </si>
   <si>
-    <t>11.072 (307)</t>
+    <t>11.062 (307)</t>
   </si>
   <si>
     <t>10.502 (307)</t>
@@ -1870,7 +1870,7 @@
     <t>41.928 (235)</t>
   </si>
   <si>
-    <t>11.528 (235)</t>
+    <t>11.523 (235)</t>
   </si>
   <si>
     <t>10.962 (235)</t>
@@ -1924,7 +1924,7 @@
     <t>42.562 (422)</t>
   </si>
   <si>
-    <t>11.232 (422)</t>
+    <t>11.227 (422)</t>
   </si>
   <si>
     <t>10.479 (422)</t>
@@ -1978,7 +1978,7 @@
     <t>42.898 (108)</t>
   </si>
   <si>
-    <t>11.389 (108)</t>
+    <t>11.38 (108)</t>
   </si>
   <si>
     <t>11.111 (108)</t>
@@ -2083,7 +2083,7 @@
     <t>41.56 (159)</t>
   </si>
   <si>
-    <t>11.736 (159)</t>
+    <t>11.723 (159)</t>
   </si>
   <si>
     <t>11.069 (159)</t>
@@ -2188,7 +2188,7 @@
     <t>41.788 (189)</t>
   </si>
   <si>
-    <t>11.804 (189)</t>
+    <t>11.794 (189)</t>
   </si>
   <si>
     <t>10.767 (189)</t>
@@ -2350,7 +2350,7 @@
     <t>43.167 (342)</t>
   </si>
   <si>
-    <t>11.012 (342)</t>
+    <t>11.006 (342)</t>
   </si>
   <si>
     <t>10.74 (342)</t>
@@ -2404,7 +2404,7 @@
     <t>41.869 (268)</t>
   </si>
   <si>
-    <t>11.556 (268)</t>
+    <t>11.545 (268)</t>
   </si>
   <si>
     <t>10.56 (268)</t>
@@ -2458,7 +2458,7 @@
     <t>42.23 (61)</t>
   </si>
   <si>
-    <t>10.689 (61)</t>
+    <t>10.705 (61)</t>
   </si>
   <si>
     <t>10.82 (61)</t>
@@ -2605,7 +2605,7 @@
     <t>42.781 (279)</t>
   </si>
   <si>
-    <t>11.301 (279)</t>
+    <t>11.297 (279)</t>
   </si>
   <si>
     <t>10.792 (279)</t>
@@ -2659,7 +2659,7 @@
     <t>42.717 (322)</t>
   </si>
   <si>
-    <t>11.248 (322)</t>
+    <t>11.236 (322)</t>
   </si>
   <si>
     <t>10.686 (322)</t>
@@ -2713,7 +2713,7 @@
     <t>41.943 (105)</t>
   </si>
   <si>
-    <t>11.067 (105)</t>
+    <t>11.076 (105)</t>
   </si>
   <si>
     <t>10.514 (105)</t>
@@ -2815,7 +2815,7 @@
     <t>43.295 (129)</t>
   </si>
   <si>
-    <t>11.419 (129)</t>
+    <t>11.426 (129)</t>
   </si>
   <si>
     <t>10.93 (129)</t>
@@ -2869,7 +2869,7 @@
     <t>41.499 (345)</t>
   </si>
   <si>
-    <t>11.539 (345)</t>
+    <t>11.533 (345)</t>
   </si>
   <si>
     <t>10.577 (345)</t>
@@ -2923,7 +2923,7 @@
     <t>42.437 (126)</t>
   </si>
   <si>
-    <t>11.413 (126)</t>
+    <t>11.405 (126)</t>
   </si>
   <si>
     <t>11.056 (126)</t>
@@ -3085,7 +3085,7 @@
     <t>42.592 (282)</t>
   </si>
   <si>
-    <t>11.234 (282)</t>
+    <t>11.238 (282)</t>
   </si>
   <si>
     <t>10.638 (282)</t>
@@ -3136,7 +3136,7 @@
     <t>40.995 (211)</t>
   </si>
   <si>
-    <t>11.682 (211)</t>
+    <t>11.668 (211)</t>
   </si>
   <si>
     <t>10.758 (211)</t>
@@ -3292,7 +3292,7 @@
     <t>42.217 (212)</t>
   </si>
   <si>
-    <t>11.519 (212)</t>
+    <t>11.524 (212)</t>
   </si>
   <si>
     <t>10.887 (212)</t>
@@ -3346,7 +3346,7 @@
     <t>41.707 (263)</t>
   </si>
   <si>
-    <t>11.449 (263)</t>
+    <t>11.437 (263)</t>
   </si>
   <si>
     <t>10.658 (263)</t>
@@ -3562,7 +3562,7 @@
     <t>41.894 (151)</t>
   </si>
   <si>
-    <t>11.278 (151)</t>
+    <t>11.285 (151)</t>
   </si>
   <si>
     <t>10.927 (151)</t>
@@ -3616,7 +3616,7 @@
     <t>42.282 (273)</t>
   </si>
   <si>
-    <t>11.766 (273)</t>
+    <t>11.758 (273)</t>
   </si>
   <si>
     <t>10.718 (273)</t>
@@ -3667,7 +3667,7 @@
     <t>41.458 (142)</t>
   </si>
   <si>
-    <t>11.183 (142)</t>
+    <t>11.176 (142)</t>
   </si>
   <si>
     <t>10.549 (142)</t>
@@ -4205,10 +4205,10 @@
         <v>2.402</v>
       </c>
       <c r="H2">
-        <v>1.459</v>
+        <v>1.507</v>
       </c>
       <c r="I2">
-        <v>0.145</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4234,10 +4234,10 @@
         <v>-0.6929999999999999</v>
       </c>
       <c r="H3">
-        <v>-0.474</v>
+        <v>-0.396</v>
       </c>
       <c r="I3">
-        <v>0.636</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4263,10 +4263,10 @@
         <v>0.024</v>
       </c>
       <c r="H4">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4292,10 +4292,10 @@
         <v>-1.374</v>
       </c>
       <c r="H5">
-        <v>-0.652</v>
+        <v>-0.583</v>
       </c>
       <c r="I5">
-        <v>0.515</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4321,10 +4321,10 @@
         <v>-1.035</v>
       </c>
       <c r="H6">
-        <v>-0.482</v>
+        <v>-0.413</v>
       </c>
       <c r="I6">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4350,10 +4350,10 @@
         <v>-3.911</v>
       </c>
       <c r="H7">
-        <v>-1.747</v>
+        <v>-1.758</v>
       </c>
       <c r="I7">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4376,13 +4376,13 @@
         <v>0.038</v>
       </c>
       <c r="G8">
-        <v>-1.219</v>
+        <v>-1.245</v>
       </c>
       <c r="H8">
-        <v>-1.686</v>
+        <v>-1.77</v>
       </c>
       <c r="I8">
-        <v>0.092</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4408,10 +4408,10 @@
         <v>0.301</v>
       </c>
       <c r="H9">
-        <v>0.436</v>
+        <v>0.356</v>
       </c>
       <c r="I9">
-        <v>0.663</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4437,10 +4437,10 @@
         <v>0.063</v>
       </c>
       <c r="H10">
-        <v>0.076</v>
+        <v>0.068</v>
       </c>
       <c r="I10">
-        <v>0.9389999999999999</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4466,10 +4466,10 @@
         <v>0.865</v>
       </c>
       <c r="H11">
-        <v>1.018</v>
+        <v>0.859</v>
       </c>
       <c r="I11">
-        <v>0.309</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4495,10 +4495,10 @@
         <v>0.18</v>
       </c>
       <c r="H12">
-        <v>0.209</v>
+        <v>0.18</v>
       </c>
       <c r="I12">
-        <v>0.835</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4524,10 +4524,10 @@
         <v>1.283</v>
       </c>
       <c r="H13">
-        <v>1.478</v>
+        <v>1.449</v>
       </c>
       <c r="I13">
-        <v>0.14</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4553,10 +4553,10 @@
         <v>-0.007</v>
       </c>
       <c r="H14">
-        <v>-0.552</v>
+        <v>-0.573</v>
       </c>
       <c r="I14">
-        <v>0.581</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4582,10 +4582,10 @@
         <v>-0.012</v>
       </c>
       <c r="H15">
-        <v>-0.9429999999999999</v>
+        <v>-0.8110000000000001</v>
       </c>
       <c r="I15">
-        <v>0.346</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4611,10 +4611,10 @@
         <v>-0.014</v>
       </c>
       <c r="H16">
-        <v>-0.991</v>
+        <v>-0.855</v>
       </c>
       <c r="I16">
-        <v>0.322</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4640,10 +4640,10 @@
         <v>-0.004</v>
       </c>
       <c r="H17">
-        <v>-0.248</v>
+        <v>-0.251</v>
       </c>
       <c r="I17">
-        <v>0.805</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4669,10 +4669,10 @@
         <v>-0.028</v>
       </c>
       <c r="H18">
-        <v>-1.694</v>
+        <v>-1.506</v>
       </c>
       <c r="I18">
-        <v>0.091</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4698,10 +4698,10 @@
         <v>0.001</v>
       </c>
       <c r="H19">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="I19">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
     </row>
   </sheetData>
@@ -4794,10 +4794,10 @@
         <v>0.639</v>
       </c>
       <c r="J2">
-        <v>0.298</v>
+        <v>0.265</v>
       </c>
       <c r="K2">
-        <v>0.766</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4829,10 +4829,10 @@
         <v>0.171</v>
       </c>
       <c r="J3">
-        <v>0.099</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K3">
-        <v>0.921</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4864,10 +4864,10 @@
         <v>3.115</v>
       </c>
       <c r="J4">
-        <v>1.207</v>
+        <v>1.098</v>
       </c>
       <c r="K4">
-        <v>0.228</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4899,10 +4899,10 @@
         <v>-1.337</v>
       </c>
       <c r="J5">
-        <v>-0.477</v>
+        <v>-0.421</v>
       </c>
       <c r="K5">
-        <v>0.633</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4934,10 +4934,10 @@
         <v>2.084</v>
       </c>
       <c r="J6">
-        <v>0.731</v>
+        <v>0.75</v>
       </c>
       <c r="K6">
-        <v>0.465</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4969,10 +4969,10 @@
         <v>3.446</v>
       </c>
       <c r="J7">
-        <v>1.141</v>
+        <v>1.185</v>
       </c>
       <c r="K7">
-        <v>0.254</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5001,13 +5001,13 @@
         <v>0.035</v>
       </c>
       <c r="I8">
-        <v>-0.882</v>
+        <v>-0.886</v>
       </c>
       <c r="J8">
-        <v>-0.901</v>
+        <v>-0.827</v>
       </c>
       <c r="K8">
-        <v>0.368</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5039,10 +5039,10 @@
         <v>-0.056</v>
       </c>
       <c r="J9">
-        <v>-0.065</v>
+        <v>-0.059</v>
       </c>
       <c r="K9">
-        <v>0.948</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5074,10 +5074,10 @@
         <v>-1.411</v>
       </c>
       <c r="J10">
-        <v>-1.27</v>
+        <v>-1.194</v>
       </c>
       <c r="K10">
-        <v>0.205</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5109,10 +5109,10 @@
         <v>1.227</v>
       </c>
       <c r="J11">
-        <v>1.06</v>
+        <v>0.931</v>
       </c>
       <c r="K11">
-        <v>0.289</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5144,10 +5144,10 @@
         <v>-0.505</v>
       </c>
       <c r="J12">
-        <v>-0.433</v>
+        <v>-0.425</v>
       </c>
       <c r="K12">
-        <v>0.665</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5179,10 +5179,10 @@
         <v>-1.24</v>
       </c>
       <c r="J13">
-        <v>-1.034</v>
+        <v>-0.996</v>
       </c>
       <c r="K13">
-        <v>0.301</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5214,10 +5214,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.302</v>
+        <v>-0.303</v>
       </c>
       <c r="K14">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5249,10 +5249,10 @@
         <v>-0.007</v>
       </c>
       <c r="J15">
-        <v>-0.45</v>
+        <v>-0.409</v>
       </c>
       <c r="K15">
-        <v>0.653</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5284,10 +5284,10 @@
         <v>-0.003</v>
       </c>
       <c r="J16">
-        <v>-0.146</v>
+        <v>-0.132</v>
       </c>
       <c r="K16">
-        <v>0.884</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5319,10 +5319,10 @@
         <v>-0.013</v>
       </c>
       <c r="J17">
-        <v>-0.625</v>
+        <v>-0.518</v>
       </c>
       <c r="K17">
-        <v>0.532</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5354,10 +5354,10 @@
         <v>-0.032</v>
       </c>
       <c r="J18">
-        <v>-1.431</v>
+        <v>-1.29</v>
       </c>
       <c r="K18">
-        <v>0.153</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5389,10 +5389,10 @@
         <v>0.006</v>
       </c>
       <c r="J19">
-        <v>0.268</v>
+        <v>0.243</v>
       </c>
       <c r="K19">
-        <v>0.789</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5492,10 +5492,10 @@
         <v>1.021</v>
       </c>
       <c r="K2">
-        <v>0.415</v>
+        <v>0.383</v>
       </c>
       <c r="L2">
-        <v>0.678</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5530,10 +5530,10 @@
         <v>1.472</v>
       </c>
       <c r="K3">
-        <v>0.741</v>
+        <v>0.699</v>
       </c>
       <c r="L3">
-        <v>0.459</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5568,10 +5568,10 @@
         <v>2.123</v>
       </c>
       <c r="K4">
-        <v>0.716</v>
+        <v>0.663</v>
       </c>
       <c r="L4">
-        <v>0.474</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5606,10 +5606,10 @@
         <v>-2.595</v>
       </c>
       <c r="K5">
-        <v>-0.8070000000000001</v>
+        <v>-0.749</v>
       </c>
       <c r="L5">
-        <v>0.42</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5644,10 +5644,10 @@
         <v>-0.392</v>
       </c>
       <c r="K6">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="L6">
-        <v>0.905</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5682,10 +5682,10 @@
         <v>1.467</v>
       </c>
       <c r="K7">
-        <v>0.423</v>
+        <v>0.385</v>
       </c>
       <c r="L7">
-        <v>0.673</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5717,13 +5717,13 @@
         <v>0.027</v>
       </c>
       <c r="J8">
-        <v>-1.242</v>
+        <v>-1.24</v>
       </c>
       <c r="K8">
-        <v>-1.106</v>
+        <v>-1.032</v>
       </c>
       <c r="L8">
-        <v>0.269</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5758,10 +5758,10 @@
         <v>-0.622</v>
       </c>
       <c r="K9">
-        <v>-0.629</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="L9">
-        <v>0.529</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5796,10 +5796,10 @@
         <v>-0.741</v>
       </c>
       <c r="K10">
-        <v>-0.581</v>
+        <v>-0.533</v>
       </c>
       <c r="L10">
-        <v>0.5620000000000001</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5834,10 +5834,10 @@
         <v>1.908</v>
       </c>
       <c r="K11">
-        <v>1.438</v>
+        <v>1.347</v>
       </c>
       <c r="L11">
-        <v>0.151</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5872,10 +5872,10 @@
         <v>0.769</v>
       </c>
       <c r="K12">
-        <v>0.575</v>
+        <v>0.513</v>
       </c>
       <c r="L12">
-        <v>0.5649999999999999</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5910,10 +5910,10 @@
         <v>-0.663</v>
       </c>
       <c r="K13">
-        <v>-0.481</v>
+        <v>-0.423</v>
       </c>
       <c r="L13">
-        <v>0.631</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5948,10 +5948,10 @@
         <v>-0.006</v>
       </c>
       <c r="K14">
-        <v>-0.303</v>
+        <v>-0.295</v>
       </c>
       <c r="L14">
-        <v>0.762</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5986,10 +5986,10 @@
         <v>-0.022</v>
       </c>
       <c r="K15">
-        <v>-1.136</v>
+        <v>-0.948</v>
       </c>
       <c r="L15">
-        <v>0.257</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6024,10 +6024,10 @@
         <v>-0.005</v>
       </c>
       <c r="K16">
-        <v>-0.218</v>
+        <v>-0.197</v>
       </c>
       <c r="L16">
-        <v>0.827</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6062,10 +6062,10 @@
         <v>-0.017</v>
       </c>
       <c r="K17">
-        <v>-0.6879999999999999</v>
+        <v>-0.535</v>
       </c>
       <c r="L17">
-        <v>0.492</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6100,10 +6100,10 @@
         <v>-0.038</v>
       </c>
       <c r="K18">
-        <v>-1.494</v>
+        <v>-1.378</v>
       </c>
       <c r="L18">
-        <v>0.136</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6138,10 +6138,10 @@
         <v>0.019</v>
       </c>
       <c r="K19">
-        <v>0.763</v>
+        <v>0.706</v>
       </c>
       <c r="L19">
-        <v>0.445</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -6241,10 +6241,10 @@
         <v>2.197</v>
       </c>
       <c r="K2">
-        <v>0.766</v>
+        <v>0.698</v>
       </c>
       <c r="L2">
-        <v>0.444</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6279,10 +6279,10 @@
         <v>1.633</v>
       </c>
       <c r="K3">
-        <v>0.706</v>
+        <v>0.653</v>
       </c>
       <c r="L3">
-        <v>0.481</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6317,10 +6317,10 @@
         <v>2.211</v>
       </c>
       <c r="K4">
-        <v>0.64</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="L4">
-        <v>0.522</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6355,10 +6355,10 @@
         <v>-1.796</v>
       </c>
       <c r="K5">
-        <v>-0.479</v>
+        <v>-0.439</v>
       </c>
       <c r="L5">
-        <v>0.632</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6393,10 +6393,10 @@
         <v>-0.869</v>
       </c>
       <c r="K6">
-        <v>-0.228</v>
+        <v>-0.192</v>
       </c>
       <c r="L6">
-        <v>0.82</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6431,10 +6431,10 @@
         <v>4.901</v>
       </c>
       <c r="K7">
-        <v>1.215</v>
+        <v>1.105</v>
       </c>
       <c r="L7">
-        <v>0.225</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6466,13 +6466,13 @@
         <v>0.02</v>
       </c>
       <c r="J8">
-        <v>-1.472</v>
+        <v>-1.464</v>
       </c>
       <c r="K8">
-        <v>-1.126</v>
+        <v>-1.095</v>
       </c>
       <c r="L8">
-        <v>0.261</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6507,10 +6507,10 @@
         <v>-0.369</v>
       </c>
       <c r="K9">
-        <v>-0.32</v>
+        <v>-0.298</v>
       </c>
       <c r="L9">
-        <v>0.749</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6545,10 +6545,10 @@
         <v>-1.022</v>
       </c>
       <c r="K10">
-        <v>-0.6870000000000001</v>
+        <v>-0.583</v>
       </c>
       <c r="L10">
-        <v>0.492</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6583,10 +6583,10 @@
         <v>1.172</v>
       </c>
       <c r="K11">
-        <v>0.758</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="L11">
-        <v>0.449</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6621,10 +6621,10 @@
         <v>1.088</v>
       </c>
       <c r="K12">
-        <v>0.699</v>
+        <v>0.612</v>
       </c>
       <c r="L12">
-        <v>0.485</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6659,10 +6659,10 @@
         <v>-2.146</v>
       </c>
       <c r="K13">
-        <v>-1.34</v>
+        <v>-1.167</v>
       </c>
       <c r="L13">
-        <v>0.181</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6697,10 +6697,10 @@
         <v>-0.004</v>
       </c>
       <c r="K14">
-        <v>-0.192</v>
+        <v>-0.202</v>
       </c>
       <c r="L14">
-        <v>0.848</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6735,10 +6735,10 @@
         <v>-0.032</v>
       </c>
       <c r="K15">
-        <v>-1.417</v>
+        <v>-1.251</v>
       </c>
       <c r="L15">
-        <v>0.157</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6773,10 +6773,10 @@
         <v>-0.005</v>
       </c>
       <c r="K16">
-        <v>-0.195</v>
+        <v>-0.19</v>
       </c>
       <c r="L16">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6811,10 +6811,10 @@
         <v>-0.01</v>
       </c>
       <c r="K17">
-        <v>-0.365</v>
+        <v>-0.277</v>
       </c>
       <c r="L17">
-        <v>0.716</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6849,10 +6849,10 @@
         <v>-0.023</v>
       </c>
       <c r="K18">
-        <v>-0.76</v>
+        <v>-0.719</v>
       </c>
       <c r="L18">
-        <v>0.447</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6887,10 +6887,10 @@
         <v>0.047</v>
       </c>
       <c r="K19">
-        <v>1.597</v>
+        <v>1.304</v>
       </c>
       <c r="L19">
-        <v>0.111</v>
+        <v>0.192</v>
       </c>
     </row>
   </sheetData>
@@ -6976,10 +6976,10 @@
         <v>0.764</v>
       </c>
       <c r="I2">
-        <v>0.399</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7008,10 +7008,10 @@
         <v>1.261</v>
       </c>
       <c r="I3">
-        <v>0.868</v>
+        <v>0.776</v>
       </c>
       <c r="J3">
-        <v>0.386</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7040,10 +7040,10 @@
         <v>-0.988</v>
       </c>
       <c r="I4">
-        <v>-0.424</v>
+        <v>-0.366</v>
       </c>
       <c r="J4">
-        <v>0.672</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7072,10 +7072,10 @@
         <v>-6.272</v>
       </c>
       <c r="I5">
-        <v>-2.454</v>
+        <v>-2.133</v>
       </c>
       <c r="J5">
-        <v>0.015</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7104,10 +7104,10 @@
         <v>1.825</v>
       </c>
       <c r="I6">
-        <v>0.724</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="J6">
-        <v>0.469</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7136,10 +7136,10 @@
         <v>2.686</v>
       </c>
       <c r="I7">
-        <v>0.993</v>
+        <v>0.979</v>
       </c>
       <c r="J7">
-        <v>0.321</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7165,13 +7165,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>-0.705</v>
+        <v>-0.726</v>
       </c>
       <c r="I8">
-        <v>-0.776</v>
+        <v>-0.739</v>
       </c>
       <c r="J8">
-        <v>0.438</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7200,10 +7200,10 @@
         <v>-0.177</v>
       </c>
       <c r="I9">
-        <v>-0.237</v>
+        <v>-0.198</v>
       </c>
       <c r="J9">
-        <v>0.8129999999999999</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7232,10 +7232,10 @@
         <v>0.151</v>
       </c>
       <c r="I10">
-        <v>0.148</v>
+        <v>0.132</v>
       </c>
       <c r="J10">
-        <v>0.882</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7264,10 +7264,10 @@
         <v>2.848</v>
       </c>
       <c r="I11">
-        <v>2.667</v>
+        <v>2.124</v>
       </c>
       <c r="J11">
-        <v>0.008</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7296,10 +7296,10 @@
         <v>-0.346</v>
       </c>
       <c r="I12">
-        <v>-0.331</v>
+        <v>-0.322</v>
       </c>
       <c r="J12">
-        <v>0.741</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7328,10 +7328,10 @@
         <v>-1.131</v>
       </c>
       <c r="I13">
-        <v>-1.062</v>
+        <v>-1.036</v>
       </c>
       <c r="J13">
-        <v>0.289</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7360,10 +7360,10 @@
         <v>0.008</v>
       </c>
       <c r="I14">
-        <v>0.526</v>
+        <v>0.506</v>
       </c>
       <c r="J14">
-        <v>0.599</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7392,10 +7392,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.703</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J15">
-        <v>0.483</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7424,10 +7424,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.744</v>
+        <v>0.583</v>
       </c>
       <c r="J16">
-        <v>0.457</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7456,10 +7456,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>0.85</v>
+        <v>0.873</v>
       </c>
       <c r="J17">
-        <v>0.396</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7488,10 +7488,10 @@
         <v>-0.03</v>
       </c>
       <c r="I18">
-        <v>-1.477</v>
+        <v>-1.398</v>
       </c>
       <c r="J18">
-        <v>0.14</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7520,10 +7520,10 @@
         <v>-0.004</v>
       </c>
       <c r="I19">
-        <v>-0.182</v>
+        <v>-0.151</v>
       </c>
       <c r="J19">
-        <v>0.856</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -7616,10 +7616,10 @@
         <v>2.308</v>
       </c>
       <c r="J2">
-        <v>1.012</v>
+        <v>0.87</v>
       </c>
       <c r="K2">
-        <v>0.312</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7651,10 +7651,10 @@
         <v>1.998</v>
       </c>
       <c r="J3">
-        <v>1.156</v>
+        <v>1.187</v>
       </c>
       <c r="K3">
-        <v>0.248</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7686,10 +7686,10 @@
         <v>-1.106</v>
       </c>
       <c r="J4">
-        <v>-0.398</v>
+        <v>-0.37</v>
       </c>
       <c r="K4">
-        <v>0.6909999999999999</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7721,10 +7721,10 @@
         <v>-5.852</v>
       </c>
       <c r="J5">
-        <v>-1.917</v>
+        <v>-1.778</v>
       </c>
       <c r="K5">
-        <v>0.056</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7756,10 +7756,10 @@
         <v>2.069</v>
       </c>
       <c r="J6">
-        <v>0.6899999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="K6">
-        <v>0.491</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7791,10 +7791,10 @@
         <v>2.281</v>
       </c>
       <c r="J7">
-        <v>0.708</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="K7">
-        <v>0.48</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7823,13 +7823,13 @@
         <v>0.039</v>
       </c>
       <c r="I8">
-        <v>-1.307</v>
+        <v>-1.342</v>
       </c>
       <c r="J8">
-        <v>-1.211</v>
+        <v>-1.076</v>
       </c>
       <c r="K8">
-        <v>0.227</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7861,10 +7861,10 @@
         <v>-0.783</v>
       </c>
       <c r="J9">
-        <v>-0.882</v>
+        <v>-0.83</v>
       </c>
       <c r="K9">
-        <v>0.378</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7896,10 +7896,10 @@
         <v>0.238</v>
       </c>
       <c r="J10">
-        <v>0.196</v>
+        <v>0.179</v>
       </c>
       <c r="K10">
-        <v>0.845</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7931,10 +7931,10 @@
         <v>2.776</v>
       </c>
       <c r="J11">
-        <v>2.177</v>
+        <v>1.821</v>
       </c>
       <c r="K11">
-        <v>0.03</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7966,10 +7966,10 @@
         <v>-0.295</v>
       </c>
       <c r="J12">
-        <v>-0.236</v>
+        <v>-0.232</v>
       </c>
       <c r="K12">
-        <v>0.8139999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8001,10 +8001,10 @@
         <v>-0.84</v>
       </c>
       <c r="J13">
-        <v>-0.662</v>
+        <v>-0.618</v>
       </c>
       <c r="K13">
-        <v>0.508</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8036,10 +8036,10 @@
         <v>0.019</v>
       </c>
       <c r="J14">
-        <v>1.02</v>
+        <v>0.884</v>
       </c>
       <c r="K14">
-        <v>0.308</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8071,10 +8071,10 @@
         <v>0.023</v>
       </c>
       <c r="J15">
-        <v>1.222</v>
+        <v>0.905</v>
       </c>
       <c r="K15">
-        <v>0.222</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8106,10 +8106,10 @@
         <v>0.008</v>
       </c>
       <c r="J16">
-        <v>0.398</v>
+        <v>0.321</v>
       </c>
       <c r="K16">
-        <v>0.6909999999999999</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8141,10 +8141,10 @@
         <v>-0.01</v>
       </c>
       <c r="J17">
-        <v>-0.411</v>
+        <v>-0.415</v>
       </c>
       <c r="K17">
-        <v>0.681</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8176,10 +8176,10 @@
         <v>-0.035</v>
       </c>
       <c r="J18">
-        <v>-1.411</v>
+        <v>-1.339</v>
       </c>
       <c r="K18">
-        <v>0.159</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8211,10 +8211,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="J19">
-        <v>0.359</v>
+        <v>0.322</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
+        <v>0.747</v>
       </c>
     </row>
   </sheetData>
@@ -8314,10 +8314,10 @@
         <v>2.183</v>
       </c>
       <c r="K2">
-        <v>0.837</v>
+        <v>0.733</v>
       </c>
       <c r="L2">
-        <v>0.403</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8352,10 +8352,10 @@
         <v>3.952</v>
       </c>
       <c r="K3">
-        <v>2.007</v>
+        <v>2.084</v>
       </c>
       <c r="L3">
-        <v>0.045</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8390,10 +8390,10 @@
         <v>-3.989</v>
       </c>
       <c r="K4">
-        <v>-1.258</v>
+        <v>-1.25</v>
       </c>
       <c r="L4">
-        <v>0.209</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8428,10 +8428,10 @@
         <v>-8.414999999999999</v>
       </c>
       <c r="K5">
-        <v>-2.417</v>
+        <v>-2.605</v>
       </c>
       <c r="L5">
-        <v>0.016</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8466,10 +8466,10 @@
         <v>-0.369</v>
       </c>
       <c r="K6">
-        <v>-0.107</v>
+        <v>-0.097</v>
       </c>
       <c r="L6">
-        <v>0.915</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8504,10 +8504,10 @@
         <v>1.137</v>
       </c>
       <c r="K7">
-        <v>0.308</v>
+        <v>0.269</v>
       </c>
       <c r="L7">
-        <v>0.758</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8539,13 +8539,13 @@
         <v>0.03</v>
       </c>
       <c r="J8">
-        <v>-1.377</v>
+        <v>-1.406</v>
       </c>
       <c r="K8">
-        <v>-1.115</v>
+        <v>-1.015</v>
       </c>
       <c r="L8">
-        <v>0.265</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8580,10 +8580,10 @@
         <v>-1.576</v>
       </c>
       <c r="K9">
-        <v>-1.556</v>
+        <v>-1.472</v>
       </c>
       <c r="L9">
-        <v>0.121</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8618,10 +8618,10 @@
         <v>1.356</v>
       </c>
       <c r="K10">
-        <v>0.98</v>
+        <v>0.925</v>
       </c>
       <c r="L10">
-        <v>0.328</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8656,10 +8656,10 @@
         <v>3.51</v>
       </c>
       <c r="K11">
-        <v>2.41</v>
+        <v>2.378</v>
       </c>
       <c r="L11">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8694,10 +8694,10 @@
         <v>0.879</v>
       </c>
       <c r="K12">
-        <v>0.616</v>
+        <v>0.584</v>
       </c>
       <c r="L12">
-        <v>0.538</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8732,10 +8732,10 @@
         <v>-0.732</v>
       </c>
       <c r="K13">
-        <v>-0.504</v>
+        <v>-0.459</v>
       </c>
       <c r="L13">
-        <v>0.614</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8770,10 +8770,10 @@
         <v>0.02</v>
       </c>
       <c r="K14">
-        <v>0.971</v>
+        <v>0.891</v>
       </c>
       <c r="L14">
-        <v>0.332</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8808,10 +8808,10 @@
         <v>0.007</v>
       </c>
       <c r="K15">
-        <v>0.327</v>
+        <v>0.249</v>
       </c>
       <c r="L15">
-        <v>0.744</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8846,10 +8846,10 @@
         <v>0.006</v>
       </c>
       <c r="K16">
-        <v>0.265</v>
+        <v>0.218</v>
       </c>
       <c r="L16">
-        <v>0.791</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8884,10 +8884,10 @@
         <v>-0.023</v>
       </c>
       <c r="K17">
-        <v>-0.841</v>
+        <v>-0.74</v>
       </c>
       <c r="L17">
-        <v>0.401</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8922,10 +8922,10 @@
         <v>-0.041</v>
       </c>
       <c r="K18">
-        <v>-1.473</v>
+        <v>-1.382</v>
       </c>
       <c r="L18">
-        <v>0.142</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8960,10 +8960,10 @@
         <v>0.028</v>
       </c>
       <c r="K19">
-        <v>0.991</v>
+        <v>0.913</v>
       </c>
       <c r="L19">
-        <v>0.322</v>
+        <v>0.361</v>
       </c>
     </row>
   </sheetData>
@@ -9063,10 +9063,10 @@
         <v>2.952</v>
       </c>
       <c r="K2">
-        <v>0.979</v>
+        <v>0.887</v>
       </c>
       <c r="L2">
-        <v>0.328</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9101,10 +9101,10 @@
         <v>3.823</v>
       </c>
       <c r="K3">
-        <v>1.676</v>
+        <v>1.679</v>
       </c>
       <c r="L3">
-        <v>0.095</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9139,10 +9139,10 @@
         <v>-1.828</v>
       </c>
       <c r="K4">
-        <v>-0.498</v>
+        <v>-0.438</v>
       </c>
       <c r="L4">
-        <v>0.619</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9177,10 +9177,10 @@
         <v>-7.299</v>
       </c>
       <c r="K5">
-        <v>-1.807</v>
+        <v>-1.912</v>
       </c>
       <c r="L5">
-        <v>0.07199999999999999</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9215,10 +9215,10 @@
         <v>-1.919</v>
       </c>
       <c r="K6">
-        <v>-0.483</v>
+        <v>-0.427</v>
       </c>
       <c r="L6">
-        <v>0.629</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9253,10 +9253,10 @@
         <v>2.29</v>
       </c>
       <c r="K7">
-        <v>0.537</v>
+        <v>0.448</v>
       </c>
       <c r="L7">
-        <v>0.592</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9288,13 +9288,13 @@
         <v>0.022</v>
       </c>
       <c r="J8">
-        <v>-1.444</v>
+        <v>-1.485</v>
       </c>
       <c r="K8">
-        <v>-1.01</v>
+        <v>-0.987</v>
       </c>
       <c r="L8">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9329,10 +9329,10 @@
         <v>-1.128</v>
       </c>
       <c r="K9">
-        <v>-0.961</v>
+        <v>-0.9370000000000001</v>
       </c>
       <c r="L9">
-        <v>0.337</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9367,10 +9367,10 @@
         <v>0.449</v>
       </c>
       <c r="K10">
-        <v>0.281</v>
+        <v>0.24</v>
       </c>
       <c r="L10">
-        <v>0.779</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9405,10 +9405,10 @@
         <v>2.7</v>
       </c>
       <c r="K11">
-        <v>1.596</v>
+        <v>1.516</v>
       </c>
       <c r="L11">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9443,10 +9443,10 @@
         <v>1.477</v>
       </c>
       <c r="K12">
-        <v>0.895</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="L12">
-        <v>0.371</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9481,10 +9481,10 @@
         <v>-1.256</v>
       </c>
       <c r="K13">
-        <v>-0.748</v>
+        <v>-0.66</v>
       </c>
       <c r="L13">
-        <v>0.455</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9519,10 +9519,10 @@
         <v>0.036</v>
       </c>
       <c r="K14">
-        <v>1.472</v>
+        <v>1.446</v>
       </c>
       <c r="L14">
-        <v>0.142</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9557,10 +9557,10 @@
         <v>0.01</v>
       </c>
       <c r="K15">
-        <v>0.411</v>
+        <v>0.363</v>
       </c>
       <c r="L15">
-        <v>0.681</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9595,10 +9595,10 @@
         <v>0.004</v>
       </c>
       <c r="K16">
-        <v>0.164</v>
+        <v>0.144</v>
       </c>
       <c r="L16">
-        <v>0.87</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9633,10 +9633,10 @@
         <v>-0.025</v>
       </c>
       <c r="K17">
-        <v>-0.794</v>
+        <v>-0.719</v>
       </c>
       <c r="L17">
-        <v>0.427</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9671,10 +9671,10 @@
         <v>-0.036</v>
       </c>
       <c r="K18">
-        <v>-1.097</v>
+        <v>-0.995</v>
       </c>
       <c r="L18">
-        <v>0.273</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9709,10 +9709,10 @@
         <v>0.054</v>
       </c>
       <c r="K19">
-        <v>1.639</v>
+        <v>1.382</v>
       </c>
       <c r="L19">
-        <v>0.102</v>
+        <v>0.167</v>
       </c>
     </row>
   </sheetData>
@@ -9798,10 +9798,10 @@
         <v>3.079</v>
       </c>
       <c r="I2">
-        <v>1.51</v>
+        <v>1.444</v>
       </c>
       <c r="J2">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9830,10 +9830,10 @@
         <v>-0.495</v>
       </c>
       <c r="I3">
-        <v>-0.273</v>
+        <v>-0.238</v>
       </c>
       <c r="J3">
-        <v>0.785</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9862,10 +9862,10 @@
         <v>1.884</v>
       </c>
       <c r="I4">
-        <v>0.762</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J4">
-        <v>0.446</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9894,10 +9894,10 @@
         <v>-0.598</v>
       </c>
       <c r="I5">
-        <v>-0.229</v>
+        <v>-0.217</v>
       </c>
       <c r="J5">
-        <v>0.819</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9926,10 +9926,10 @@
         <v>1.666</v>
       </c>
       <c r="I6">
-        <v>0.625</v>
+        <v>0.591</v>
       </c>
       <c r="J6">
-        <v>0.532</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9958,10 +9958,10 @@
         <v>-4.4</v>
       </c>
       <c r="I7">
-        <v>-1.586</v>
+        <v>-1.628</v>
       </c>
       <c r="J7">
-        <v>0.113</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9987,13 +9987,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>-1.571</v>
+        <v>-1.6</v>
       </c>
       <c r="I8">
-        <v>-1.754</v>
+        <v>-1.706</v>
       </c>
       <c r="J8">
-        <v>0.08</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10022,10 +10022,10 @@
         <v>-0.034</v>
       </c>
       <c r="I9">
-        <v>-0.04</v>
+        <v>-0.034</v>
       </c>
       <c r="J9">
-        <v>0.968</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10054,10 +10054,10 @@
         <v>-0.882</v>
       </c>
       <c r="I10">
-        <v>-0.859</v>
+        <v>-0.76</v>
       </c>
       <c r="J10">
-        <v>0.39</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10086,10 +10086,10 @@
         <v>0.537</v>
       </c>
       <c r="I11">
-        <v>0.51</v>
+        <v>0.462</v>
       </c>
       <c r="J11">
-        <v>0.61</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10118,10 +10118,10 @@
         <v>-0.822</v>
       </c>
       <c r="I12">
-        <v>-0.77</v>
+        <v>-0.734</v>
       </c>
       <c r="J12">
-        <v>0.441</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10150,10 +10150,10 @@
         <v>1.435</v>
       </c>
       <c r="I13">
-        <v>1.334</v>
+        <v>1.38</v>
       </c>
       <c r="J13">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10182,10 +10182,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.415</v>
+        <v>-0.459</v>
       </c>
       <c r="J14">
-        <v>0.678</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10214,10 +10214,10 @@
         <v>-0.003</v>
       </c>
       <c r="I15">
-        <v>-0.177</v>
+        <v>-0.158</v>
       </c>
       <c r="J15">
-        <v>0.859</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10246,10 +10246,10 @@
         <v>-0.016</v>
       </c>
       <c r="I16">
-        <v>-0.919</v>
+        <v>-0.786</v>
       </c>
       <c r="J16">
-        <v>0.358</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10278,10 +10278,10 @@
         <v>-0.012</v>
       </c>
       <c r="I17">
-        <v>-0.601</v>
+        <v>-0.594</v>
       </c>
       <c r="J17">
-        <v>0.548</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10310,10 +10310,10 @@
         <v>-0.042</v>
       </c>
       <c r="I18">
-        <v>-2.074</v>
+        <v>-2.123</v>
       </c>
       <c r="J18">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10345,7 +10345,7 @@
         <v>0.125</v>
       </c>
       <c r="J19">
-        <v>0.901</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -10431,10 +10431,10 @@
         <v>3.2</v>
       </c>
       <c r="I2">
-        <v>1.309</v>
+        <v>1.147</v>
       </c>
       <c r="J2">
-        <v>0.191</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10463,10 +10463,10 @@
         <v>-0.332</v>
       </c>
       <c r="I3">
-        <v>-0.153</v>
+        <v>-0.137</v>
       </c>
       <c r="J3">
-        <v>0.879</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10495,10 +10495,10 @@
         <v>1.17</v>
       </c>
       <c r="I4">
-        <v>0.395</v>
+        <v>0.34</v>
       </c>
       <c r="J4">
-        <v>0.6929999999999999</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10527,10 +10527,10 @@
         <v>-3.501</v>
       </c>
       <c r="I5">
-        <v>-1.119</v>
+        <v>-1.114</v>
       </c>
       <c r="J5">
-        <v>0.264</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10559,10 +10559,10 @@
         <v>-0.681</v>
       </c>
       <c r="I6">
-        <v>-0.213</v>
+        <v>-0.189</v>
       </c>
       <c r="J6">
-        <v>0.831</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10591,10 +10591,10 @@
         <v>-6.375</v>
       </c>
       <c r="I7">
-        <v>-1.919</v>
+        <v>-1.885</v>
       </c>
       <c r="J7">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10620,13 +10620,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>-1.688</v>
+        <v>-1.757</v>
       </c>
       <c r="I8">
-        <v>-1.572</v>
+        <v>-1.448</v>
       </c>
       <c r="J8">
-        <v>0.116</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10655,10 +10655,10 @@
         <v>0.052</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="J9">
-        <v>0.96</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10687,10 +10687,10 @@
         <v>-0.355</v>
       </c>
       <c r="I10">
-        <v>-0.288</v>
+        <v>-0.249</v>
       </c>
       <c r="J10">
-        <v>0.773</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10719,10 +10719,10 @@
         <v>1.386</v>
       </c>
       <c r="I11">
-        <v>1.098</v>
+        <v>1.028</v>
       </c>
       <c r="J11">
-        <v>0.272</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10751,10 +10751,10 @@
         <v>0.128</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="J12">
-        <v>0.92</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10783,10 +10783,10 @@
         <v>2.37</v>
       </c>
       <c r="I13">
-        <v>1.84</v>
+        <v>1.917</v>
       </c>
       <c r="J13">
-        <v>0.066</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10815,10 +10815,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.404</v>
+        <v>-0.45</v>
       </c>
       <c r="J14">
-        <v>0.6860000000000001</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10847,10 +10847,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-1.281</v>
+        <v>-1.194</v>
       </c>
       <c r="J15">
-        <v>0.201</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10879,10 +10879,10 @@
         <v>-0.031</v>
       </c>
       <c r="I16">
-        <v>-1.445</v>
+        <v>-1.274</v>
       </c>
       <c r="J16">
-        <v>0.149</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10911,10 +10911,10 @@
         <v>-0.007</v>
       </c>
       <c r="I17">
-        <v>-0.305</v>
+        <v>-0.283</v>
       </c>
       <c r="J17">
-        <v>0.761</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10943,10 +10943,10 @@
         <v>-0.064</v>
       </c>
       <c r="I18">
-        <v>-2.637</v>
+        <v>-2.857</v>
       </c>
       <c r="J18">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10975,10 +10975,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>0.649</v>
+        <v>0.719</v>
       </c>
       <c r="J19">
-        <v>0.516</v>
+        <v>0.472</v>
       </c>
     </row>
   </sheetData>
@@ -11064,10 +11064,10 @@
         <v>4.121</v>
       </c>
       <c r="I2">
-        <v>1.461</v>
+        <v>1.293</v>
       </c>
       <c r="J2">
-        <v>0.144</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11096,10 +11096,10 @@
         <v>1.003</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="J3">
-        <v>0.6889999999999999</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11128,10 +11128,10 @@
         <v>0.434</v>
       </c>
       <c r="I4">
-        <v>0.127</v>
+        <v>0.101</v>
       </c>
       <c r="J4">
-        <v>0.899</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11160,10 +11160,10 @@
         <v>-2.658</v>
       </c>
       <c r="I5">
-        <v>-0.735</v>
+        <v>-0.759</v>
       </c>
       <c r="J5">
-        <v>0.462</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11192,10 +11192,10 @@
         <v>0.739</v>
       </c>
       <c r="I6">
-        <v>0.201</v>
+        <v>0.184</v>
       </c>
       <c r="J6">
-        <v>0.841</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11224,10 +11224,10 @@
         <v>-4.631</v>
       </c>
       <c r="I7">
-        <v>-1.206</v>
+        <v>-1.27</v>
       </c>
       <c r="J7">
-        <v>0.228</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11253,13 +11253,13 @@
         <v>0.013</v>
       </c>
       <c r="H8">
-        <v>-1.815</v>
+        <v>-1.898</v>
       </c>
       <c r="I8">
-        <v>-1.464</v>
+        <v>-1.405</v>
       </c>
       <c r="J8">
-        <v>0.143</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11288,10 +11288,10 @@
         <v>-0.067</v>
       </c>
       <c r="I9">
-        <v>-0.056</v>
+        <v>-0.05</v>
       </c>
       <c r="J9">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11320,10 +11320,10 @@
         <v>-0.111</v>
       </c>
       <c r="I10">
-        <v>-0.078</v>
+        <v>-0.063</v>
       </c>
       <c r="J10">
-        <v>0.9379999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11352,10 +11352,10 @@
         <v>0.792</v>
       </c>
       <c r="I11">
-        <v>0.543</v>
+        <v>0.514</v>
       </c>
       <c r="J11">
-        <v>0.587</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11384,10 +11384,10 @@
         <v>-0.551</v>
       </c>
       <c r="I12">
-        <v>-0.373</v>
+        <v>-0.349</v>
       </c>
       <c r="J12">
-        <v>0.709</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11416,10 +11416,10 @@
         <v>1.641</v>
       </c>
       <c r="I13">
-        <v>1.103</v>
+        <v>1.269</v>
       </c>
       <c r="J13">
-        <v>0.271</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11448,10 +11448,10 @@
         <v>-0.012</v>
       </c>
       <c r="I14">
-        <v>-0.577</v>
+        <v>-0.623</v>
       </c>
       <c r="J14">
-        <v>0.5639999999999999</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11480,10 +11480,10 @@
         <v>-0.023</v>
       </c>
       <c r="I15">
-        <v>-1.057</v>
+        <v>-0.944</v>
       </c>
       <c r="J15">
-        <v>0.291</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11512,10 +11512,10 @@
         <v>-0.031</v>
       </c>
       <c r="I16">
-        <v>-1.243</v>
+        <v>-1.072</v>
       </c>
       <c r="J16">
-        <v>0.214</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11544,10 +11544,10 @@
         <v>0.005</v>
       </c>
       <c r="I17">
-        <v>0.197</v>
+        <v>0.19</v>
       </c>
       <c r="J17">
-        <v>0.844</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11576,10 +11576,10 @@
         <v>-0.056</v>
       </c>
       <c r="I18">
-        <v>-1.984</v>
+        <v>-2.125</v>
       </c>
       <c r="J18">
-        <v>0.048</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11608,10 +11608,10 @@
         <v>0.025</v>
       </c>
       <c r="I19">
-        <v>0.875</v>
+        <v>0.902</v>
       </c>
       <c r="J19">
-        <v>0.382</v>
+        <v>0.367</v>
       </c>
     </row>
   </sheetData>
@@ -11697,10 +11697,10 @@
         <v>-0.174</v>
       </c>
       <c r="I2">
-        <v>-0.103</v>
+        <v>-0.098</v>
       </c>
       <c r="J2">
-        <v>0.918</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11729,10 +11729,10 @@
         <v>-0.852</v>
       </c>
       <c r="I3">
-        <v>-0.596</v>
+        <v>-0.537</v>
       </c>
       <c r="J3">
-        <v>0.552</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11761,10 +11761,10 @@
         <v>-1.042</v>
       </c>
       <c r="I4">
-        <v>-0.52</v>
+        <v>-0.454</v>
       </c>
       <c r="J4">
-        <v>0.603</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11793,10 +11793,10 @@
         <v>-2.553</v>
       </c>
       <c r="I5">
-        <v>-1.191</v>
+        <v>-1.101</v>
       </c>
       <c r="J5">
-        <v>0.234</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11825,10 +11825,10 @@
         <v>-0.82</v>
       </c>
       <c r="I6">
-        <v>-0.371</v>
+        <v>-0.326</v>
       </c>
       <c r="J6">
-        <v>0.711</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11857,10 +11857,10 @@
         <v>-1.008</v>
       </c>
       <c r="I7">
-        <v>-0.434</v>
+        <v>-0.398</v>
       </c>
       <c r="J7">
-        <v>0.665</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11886,13 +11886,13 @@
         <v>0.044</v>
       </c>
       <c r="H8">
-        <v>-0.184</v>
+        <v>-0.205</v>
       </c>
       <c r="I8">
-        <v>-0.244</v>
+        <v>-0.267</v>
       </c>
       <c r="J8">
-        <v>0.8070000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11921,10 +11921,10 @@
         <v>0.701</v>
       </c>
       <c r="I9">
-        <v>1.013</v>
+        <v>0.913</v>
       </c>
       <c r="J9">
-        <v>0.311</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11953,10 +11953,10 @@
         <v>0.46</v>
       </c>
       <c r="I10">
-        <v>0.538</v>
+        <v>0.453</v>
       </c>
       <c r="J10">
-        <v>0.591</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11985,10 +11985,10 @@
         <v>1.372</v>
       </c>
       <c r="I11">
-        <v>1.547</v>
+        <v>1.332</v>
       </c>
       <c r="J11">
-        <v>0.122</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12017,10 +12017,10 @@
         <v>0.475</v>
       </c>
       <c r="I12">
-        <v>0.527</v>
+        <v>0.466</v>
       </c>
       <c r="J12">
-        <v>0.598</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12049,10 +12049,10 @@
         <v>0.201</v>
       </c>
       <c r="I13">
-        <v>0.219</v>
+        <v>0.196</v>
       </c>
       <c r="J13">
-        <v>0.827</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12081,10 +12081,10 @@
         <v>-0</v>
       </c>
       <c r="I14">
-        <v>-0.029</v>
+        <v>-0.031</v>
       </c>
       <c r="J14">
-        <v>0.977</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12113,10 +12113,10 @@
         <v>-0.016</v>
       </c>
       <c r="I15">
-        <v>-1.252</v>
+        <v>-1.18</v>
       </c>
       <c r="J15">
-        <v>0.211</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12145,10 +12145,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.141</v>
+        <v>-0.112</v>
       </c>
       <c r="J16">
-        <v>0.888</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12177,10 +12177,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I17">
-        <v>0.551</v>
+        <v>0.498</v>
       </c>
       <c r="J17">
-        <v>0.582</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12209,10 +12209,10 @@
         <v>-0.018</v>
       </c>
       <c r="I18">
-        <v>-1.056</v>
+        <v>-0.954</v>
       </c>
       <c r="J18">
-        <v>0.291</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12241,10 +12241,10 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>0.579</v>
+        <v>0.545</v>
       </c>
       <c r="J19">
-        <v>0.5629999999999999</v>
+        <v>0.586</v>
       </c>
     </row>
   </sheetData>
@@ -12337,10 +12337,10 @@
         <v>-1.403</v>
       </c>
       <c r="J2">
-        <v>-0.673</v>
+        <v>-0.638</v>
       </c>
       <c r="K2">
-        <v>0.501</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12372,10 +12372,10 @@
         <v>-0.226</v>
       </c>
       <c r="J3">
-        <v>-0.127</v>
+        <v>-0.117</v>
       </c>
       <c r="K3">
-        <v>0.899</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12407,10 +12407,10 @@
         <v>1.343</v>
       </c>
       <c r="J4">
-        <v>0.541</v>
+        <v>0.505</v>
       </c>
       <c r="K4">
-        <v>0.589</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12442,10 +12442,10 @@
         <v>-1.148</v>
       </c>
       <c r="J5">
-        <v>-0.432</v>
+        <v>-0.389</v>
       </c>
       <c r="K5">
-        <v>0.666</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12477,10 +12477,10 @@
         <v>0.694</v>
       </c>
       <c r="J6">
-        <v>0.253</v>
+        <v>0.232</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12512,10 +12512,10 @@
         <v>-1.375</v>
       </c>
       <c r="J7">
-        <v>-0.478</v>
+        <v>-0.479</v>
       </c>
       <c r="K7">
-        <v>0.633</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12544,13 +12544,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>0.313</v>
+        <v>0.293</v>
       </c>
       <c r="J8">
-        <v>0.334</v>
+        <v>0.294</v>
       </c>
       <c r="K8">
-        <v>0.738</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12582,10 +12582,10 @@
         <v>0.289</v>
       </c>
       <c r="J9">
-        <v>0.337</v>
+        <v>0.304</v>
       </c>
       <c r="K9">
-        <v>0.737</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12617,10 +12617,10 @@
         <v>-0.867</v>
       </c>
       <c r="J10">
-        <v>-0.8179999999999999</v>
+        <v>-0.709</v>
       </c>
       <c r="K10">
-        <v>0.413</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12652,10 +12652,10 @@
         <v>0.91</v>
       </c>
       <c r="J11">
-        <v>0.828</v>
+        <v>0.743</v>
       </c>
       <c r="K11">
-        <v>0.408</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12687,10 +12687,10 @@
         <v>0.049</v>
       </c>
       <c r="J12">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>0.965</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12722,10 +12722,10 @@
         <v>0.415</v>
       </c>
       <c r="J13">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="K13">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12757,10 +12757,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.579</v>
+        <v>-0.576</v>
       </c>
       <c r="K14">
-        <v>0.5629999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12792,10 +12792,10 @@
         <v>-0.011</v>
       </c>
       <c r="J15">
-        <v>-0.656</v>
+        <v>-0.612</v>
       </c>
       <c r="K15">
-        <v>0.512</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12827,10 +12827,10 @@
         <v>-0</v>
       </c>
       <c r="J16">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="K16">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12862,10 +12862,10 @@
         <v>-0.002</v>
       </c>
       <c r="J17">
-        <v>-0.08799999999999999</v>
+        <v>-0.075</v>
       </c>
       <c r="K17">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12897,10 +12897,10 @@
         <v>-0.025</v>
       </c>
       <c r="J18">
-        <v>-1.182</v>
+        <v>-1.118</v>
       </c>
       <c r="K18">
-        <v>0.238</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12932,10 +12932,10 @@
         <v>0.021</v>
       </c>
       <c r="J19">
-        <v>0.964</v>
+        <v>0.92</v>
       </c>
       <c r="K19">
-        <v>0.335</v>
+        <v>0.357</v>
       </c>
     </row>
   </sheetData>
@@ -13028,10 +13028,10 @@
         <v>-1.092</v>
       </c>
       <c r="J2">
-        <v>-0.454</v>
+        <v>-0.439</v>
       </c>
       <c r="K2">
-        <v>0.65</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13063,10 +13063,10 @@
         <v>0.444</v>
       </c>
       <c r="J3">
-        <v>0.217</v>
+        <v>0.22</v>
       </c>
       <c r="K3">
-        <v>0.828</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13098,10 +13098,10 @@
         <v>1.069</v>
       </c>
       <c r="J4">
-        <v>0.373</v>
+        <v>0.322</v>
       </c>
       <c r="K4">
-        <v>0.709</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13133,10 +13133,10 @@
         <v>-2.17</v>
       </c>
       <c r="J5">
-        <v>-0.708</v>
+        <v>-0.664</v>
       </c>
       <c r="K5">
-        <v>0.479</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13168,10 +13168,10 @@
         <v>-0.336</v>
       </c>
       <c r="J6">
-        <v>-0.106</v>
+        <v>-0.091</v>
       </c>
       <c r="K6">
-        <v>0.915</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13203,10 +13203,10 @@
         <v>-3.074</v>
       </c>
       <c r="J7">
-        <v>-0.927</v>
+        <v>-0.801</v>
       </c>
       <c r="K7">
-        <v>0.354</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13235,13 +13235,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>0.058</v>
+        <v>0.033</v>
       </c>
       <c r="J8">
-        <v>0.053</v>
+        <v>0.028</v>
       </c>
       <c r="K8">
-        <v>0.957</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13273,10 +13273,10 @@
         <v>0.038</v>
       </c>
       <c r="J9">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="K9">
-        <v>0.97</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13308,10 +13308,10 @@
         <v>-0.408</v>
       </c>
       <c r="J10">
-        <v>-0.334</v>
+        <v>-0.27</v>
       </c>
       <c r="K10">
-        <v>0.738</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13343,10 +13343,10 @@
         <v>1.201</v>
       </c>
       <c r="J11">
-        <v>0.948</v>
+        <v>0.905</v>
       </c>
       <c r="K11">
-        <v>0.344</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13378,10 +13378,10 @@
         <v>0.658</v>
       </c>
       <c r="J12">
-        <v>0.512</v>
+        <v>0.437</v>
       </c>
       <c r="K12">
-        <v>0.609</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13413,10 +13413,10 @@
         <v>0.906</v>
       </c>
       <c r="J13">
-        <v>0.6919999999999999</v>
+        <v>0.634</v>
       </c>
       <c r="K13">
-        <v>0.489</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13448,10 +13448,10 @@
         <v>-0.019</v>
       </c>
       <c r="J14">
-        <v>-1.07</v>
+        <v>-1.036</v>
       </c>
       <c r="K14">
-        <v>0.285</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13483,10 +13483,10 @@
         <v>-0.036</v>
       </c>
       <c r="J15">
-        <v>-1.92</v>
+        <v>-1.747</v>
       </c>
       <c r="K15">
-        <v>0.055</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13518,10 +13518,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.757</v>
+        <v>-0.569</v>
       </c>
       <c r="K16">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13553,10 +13553,10 @@
         <v>-0.016</v>
       </c>
       <c r="J17">
-        <v>-0.6850000000000001</v>
+        <v>-0.548</v>
       </c>
       <c r="K17">
-        <v>0.494</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13588,10 +13588,10 @@
         <v>-0.037</v>
       </c>
       <c r="J18">
-        <v>-1.508</v>
+        <v>-1.418</v>
       </c>
       <c r="K18">
-        <v>0.132</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13623,10 +13623,10 @@
         <v>0.037</v>
       </c>
       <c r="J19">
-        <v>1.499</v>
+        <v>1.39</v>
       </c>
       <c r="K19">
-        <v>0.134</v>
+        <v>0.165</v>
       </c>
     </row>
   </sheetData>
@@ -13719,10 +13719,10 @@
         <v>0.87</v>
       </c>
       <c r="J2">
-        <v>0.315</v>
+        <v>0.294</v>
       </c>
       <c r="K2">
-        <v>0.753</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13754,10 +13754,10 @@
         <v>0.805</v>
       </c>
       <c r="J3">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="K3">
-        <v>0.732</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13789,10 +13789,10 @@
         <v>0.954</v>
       </c>
       <c r="J4">
-        <v>0.291</v>
+        <v>0.249</v>
       </c>
       <c r="K4">
-        <v>0.771</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13824,10 +13824,10 @@
         <v>-2.013</v>
       </c>
       <c r="J5">
-        <v>-0.573</v>
+        <v>-0.521</v>
       </c>
       <c r="K5">
-        <v>0.5669999999999999</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13859,10 +13859,10 @@
         <v>-0.484</v>
       </c>
       <c r="J6">
-        <v>-0.134</v>
+        <v>-0.109</v>
       </c>
       <c r="K6">
-        <v>0.894</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13894,10 +13894,10 @@
         <v>-0.707</v>
       </c>
       <c r="J7">
-        <v>-0.186</v>
+        <v>-0.168</v>
       </c>
       <c r="K7">
-        <v>0.853</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13926,13 +13926,13 @@
         <v>0.017</v>
       </c>
       <c r="I8">
-        <v>-0.617</v>
+        <v>-0.646</v>
       </c>
       <c r="J8">
-        <v>-0.499</v>
+        <v>-0.488</v>
       </c>
       <c r="K8">
-        <v>0.618</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13964,10 +13964,10 @@
         <v>0.224</v>
       </c>
       <c r="J9">
-        <v>0.197</v>
+        <v>0.184</v>
       </c>
       <c r="K9">
-        <v>0.844</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13999,10 +13999,10 @@
         <v>-0.405</v>
       </c>
       <c r="J10">
-        <v>-0.289</v>
+        <v>-0.228</v>
       </c>
       <c r="K10">
-        <v>0.773</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14034,10 +14034,10 @@
         <v>0.745</v>
       </c>
       <c r="J11">
-        <v>0.512</v>
+        <v>0.464</v>
       </c>
       <c r="K11">
-        <v>0.609</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14069,10 +14069,10 @@
         <v>0.504</v>
       </c>
       <c r="J12">
-        <v>0.342</v>
+        <v>0.289</v>
       </c>
       <c r="K12">
-        <v>0.732</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14104,10 +14104,10 @@
         <v>-0.198</v>
       </c>
       <c r="J13">
-        <v>-0.132</v>
+        <v>-0.124</v>
       </c>
       <c r="K13">
-        <v>0.895</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14139,10 +14139,10 @@
         <v>-0.018</v>
       </c>
       <c r="J14">
-        <v>-0.872</v>
+        <v>-0.88</v>
       </c>
       <c r="K14">
-        <v>0.384</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14174,10 +14174,10 @@
         <v>-0.038</v>
       </c>
       <c r="J15">
-        <v>-1.757</v>
+        <v>-1.64</v>
       </c>
       <c r="K15">
-        <v>0.079</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14209,10 +14209,10 @@
         <v>-0.022</v>
       </c>
       <c r="J16">
-        <v>-0.9320000000000001</v>
+        <v>-0.753</v>
       </c>
       <c r="K16">
-        <v>0.352</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14244,10 +14244,10 @@
         <v>-0.007</v>
       </c>
       <c r="J17">
-        <v>-0.277</v>
+        <v>-0.219</v>
       </c>
       <c r="K17">
-        <v>0.782</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14279,10 +14279,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-0.718</v>
+        <v>-0.677</v>
       </c>
       <c r="K18">
-        <v>0.473</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14314,10 +14314,10 @@
         <v>0.057</v>
       </c>
       <c r="J19">
-        <v>2.029</v>
+        <v>1.752</v>
       </c>
       <c r="K19">
-        <v>0.043</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -14403,10 +14403,10 @@
         <v>0.931</v>
       </c>
       <c r="I2">
-        <v>0.527</v>
+        <v>0.472</v>
       </c>
       <c r="J2">
-        <v>0.598</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14435,10 +14435,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I3">
-        <v>0.484</v>
+        <v>0.395</v>
       </c>
       <c r="J3">
-        <v>0.628</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14467,10 +14467,10 @@
         <v>1.741</v>
       </c>
       <c r="I4">
-        <v>0.819</v>
+        <v>0.711</v>
       </c>
       <c r="J4">
-        <v>0.413</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14499,10 +14499,10 @@
         <v>-2.459</v>
       </c>
       <c r="I5">
-        <v>-1.067</v>
+        <v>-0.964</v>
       </c>
       <c r="J5">
-        <v>0.287</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14531,10 +14531,10 @@
         <v>0.902</v>
       </c>
       <c r="I6">
-        <v>0.384</v>
+        <v>0.341</v>
       </c>
       <c r="J6">
-        <v>0.701</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14563,10 +14563,10 @@
         <v>2.837</v>
       </c>
       <c r="I7">
-        <v>1.141</v>
+        <v>1.09</v>
       </c>
       <c r="J7">
-        <v>0.254</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14592,13 +14592,13 @@
         <v>0.051</v>
       </c>
       <c r="H8">
-        <v>-0.848</v>
+        <v>-0.857</v>
       </c>
       <c r="I8">
-        <v>-1.053</v>
+        <v>-1.001</v>
       </c>
       <c r="J8">
-        <v>0.293</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14627,10 +14627,10 @@
         <v>-0.116</v>
       </c>
       <c r="I9">
-        <v>-0.163</v>
+        <v>-0.134</v>
       </c>
       <c r="J9">
-        <v>0.871</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14659,10 +14659,10 @@
         <v>-0.6919999999999999</v>
       </c>
       <c r="I10">
-        <v>-0.756</v>
+        <v>-0.675</v>
       </c>
       <c r="J10">
-        <v>0.45</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14691,10 +14691,10 @@
         <v>1.386</v>
       </c>
       <c r="I11">
-        <v>1.456</v>
+        <v>1.28</v>
       </c>
       <c r="J11">
-        <v>0.146</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14723,10 +14723,10 @@
         <v>-0.078</v>
       </c>
       <c r="I12">
-        <v>-0.081</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="J12">
-        <v>0.9360000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14755,10 +14755,10 @@
         <v>-1.165</v>
       </c>
       <c r="I13">
-        <v>-1.181</v>
+        <v>-1.071</v>
       </c>
       <c r="J13">
-        <v>0.238</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14787,10 +14787,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.336</v>
+        <v>-0.346</v>
       </c>
       <c r="J14">
-        <v>0.737</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14819,10 +14819,10 @@
         <v>-0.015</v>
       </c>
       <c r="I15">
-        <v>-1.08</v>
+        <v>-0.972</v>
       </c>
       <c r="J15">
-        <v>0.281</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14851,10 +14851,10 @@
         <v>0.002</v>
       </c>
       <c r="I16">
-        <v>0.135</v>
+        <v>0.115</v>
       </c>
       <c r="J16">
-        <v>0.893</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14883,10 +14883,10 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.123</v>
+        <v>0.101</v>
       </c>
       <c r="J17">
-        <v>0.902</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14915,10 +14915,10 @@
         <v>-0.025</v>
       </c>
       <c r="I18">
-        <v>-1.339</v>
+        <v>-1.249</v>
       </c>
       <c r="J18">
-        <v>0.181</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14947,10 +14947,10 @@
         <v>-0.002</v>
       </c>
       <c r="I19">
-        <v>-0.11</v>
+        <v>-0.099</v>
       </c>
       <c r="J19">
-        <v>0.912</v>
+        <v>0.921</v>
       </c>
     </row>
   </sheetData>
